--- a/appDebugProject/testcase/tt.xlsx
+++ b/appDebugProject/testcase/tt.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,98 +149,101 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>TestCaseID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PreCommand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostCommand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StepDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tester</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EEE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result.Normal("Start example test.")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a5</t>
+  </si>
+  <si>
+    <t>a6</t>
+  </si>
+  <si>
+    <t>a7</t>
+  </si>
+  <si>
+    <t>a1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.WindowP.StartAppliaction(r"D:\auto\buffer\AiSchool\AiTeacherCenter\AiTeacherCenter\AiTeacher.exe")</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TestCaseID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Steps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PreCommand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Head</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PostCommand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Verify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StepDescription</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CaseType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tester</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EEE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Result.Normal("Start example test.")</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Login.TextUserName.TypeInWin("Hello MUIA.")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a5</t>
-  </si>
-  <si>
-    <t>a6</t>
-  </si>
-  <si>
-    <t>a7</t>
-  </si>
-  <si>
-    <t>a1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Login.PwdUser.IsPassword()    2.Login.PwdUser.TypeInWin("123456")
-3.Login.CkbIsSavePwd.Name()
-4.Login.CkbIsSavePwd.SwitchToggle()
-5.Login.BtnLogin.Name()
-6.Login.BtnLogin.IsKeyboardFocusable()
-7.Login.BtnLogin.ClickWin() </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>LoginPC.TextUserName.TypeInWin("Hello MUIA.")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.LoginPC.PwdUser.IsPassword()
+2.LoginPC.PwdUser.TypeInWin("123456")
+3.LoginPC.CkbIsSavePwd.Name()
+4.LoginPC.CkbIsSavePwd.SwitchToggle()
+5.LoginPC.BtnLogin.Name()
+6.LoginPC.BtnLogin.IsKeyboardFocusable()
+7.LoginPC.BtnLogin.ClickWin() </t>
   </si>
 </sst>
 </file>
@@ -797,8 +800,8 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -817,45 +820,45 @@
   <sheetData>
     <row r="1" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="4">
         <v>3</v>
@@ -881,7 +884,7 @@
     </row>
     <row r="3" spans="1:12" ht="112.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>29</v>
@@ -901,7 +904,7 @@
     </row>
     <row r="4" spans="1:12" ht="90" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>28</v>
@@ -950,13 +953,13 @@
     </row>
     <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>30</v>
@@ -964,10 +967,10 @@
     </row>
     <row r="7" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>30</v>
@@ -975,27 +978,27 @@
     </row>
     <row r="8" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="112.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" ht="146.25" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>30</v>
